--- a/项目核心文档/格林凯尔数据检测管理系统功能清单.xlsx
+++ b/项目核心文档/格林凯尔数据检测管理系统功能清单.xlsx
@@ -1,48 +1,488 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="16155" windowHeight="8505"/>
+    <workbookView windowWidth="20385" windowHeight="8385"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33">
+  <si>
+    <t>功能菜单</t>
+  </si>
+  <si>
+    <t>功能模块</t>
+  </si>
+  <si>
+    <t>描述</t>
+  </si>
+  <si>
+    <t>系统信息管理</t>
+  </si>
+  <si>
+    <t>数据字典</t>
+  </si>
+  <si>
+    <t>该功能主要对系统中的状态、类型（如：性别，设备启用、停用）等不变或少变的标示性数据进行维护、新增、修改、删除以及查看。</t>
+  </si>
+  <si>
+    <t>账户信息</t>
+  </si>
+  <si>
+    <t>该功能主要对系统操作人员的登录信息（账号、密码）及人员基本信息进行维护管理、新增、删除、修改以及查看。</t>
+  </si>
+  <si>
+    <t>角色管理</t>
+  </si>
+  <si>
+    <t>该功能主要对系统的角色进维护管理、新增、删除、修改以及查看，一个账户可拥有多个角色且一个角色可被多个账户拥有。</t>
+  </si>
+  <si>
+    <t>功能权限配置</t>
+  </si>
+  <si>
+    <t>该功能主要对系统中的角色进功能菜单及功能按钮的操作权限进行分配管理。</t>
+  </si>
+  <si>
+    <t>菜单管理</t>
+  </si>
+  <si>
+    <t>该功能主要对系统中的菜单以及菜单下的功能进行管理、分配，此功能便于今后的系统维护（新增或屏蔽功能菜单）。</t>
+  </si>
+  <si>
+    <t>客户信息管理</t>
+  </si>
+  <si>
+    <t>客户信息</t>
+  </si>
+  <si>
+    <t>该功能主要对客户信息进行维护管理、新增、删除、修改以及查看，并对检验单进行关联。</t>
+  </si>
+  <si>
+    <t>样品信息管理</t>
+  </si>
+  <si>
+    <t>样品信息</t>
+  </si>
+  <si>
+    <t>样品指标</t>
+  </si>
+  <si>
+    <t>样品分类</t>
+  </si>
+  <si>
+    <t>设备信息管理</t>
+  </si>
+  <si>
+    <t>设备信息</t>
+  </si>
+  <si>
+    <t>设备分类</t>
+  </si>
+  <si>
+    <t>检验信息管理</t>
+  </si>
+  <si>
+    <t>检验单</t>
+  </si>
+  <si>
+    <t>检测数据</t>
+  </si>
+  <si>
+    <t>检验报告</t>
+  </si>
+  <si>
+    <t>报表分析管理</t>
+  </si>
+  <si>
+    <t>月度检验报表分析</t>
+  </si>
+  <si>
+    <t>季度检验报表分析</t>
+  </si>
+  <si>
+    <t>年度检验报表分析</t>
+  </si>
+  <si>
+    <t>流程管理</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="2"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -50,27 +490,314 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
 </file>
 
@@ -360,45 +1087,202 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="B1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <cols>
+    <col min="2" max="2" width="20" customWidth="1"/>
+    <col min="3" max="3" width="16.5" customWidth="1"/>
+    <col min="4" max="4" width="34.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="25" customHeight="1" spans="2:4">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="2:4">
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="3:4">
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="3:4">
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="3:4">
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="3:4">
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4">
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3">
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="3:3">
+      <c r="C9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="3:3">
+      <c r="C10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3">
+      <c r="B11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="3:3">
+      <c r="C12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3">
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="3:3">
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="3:3">
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3">
+      <c r="B16" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3">
+      <c r="C17" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="3:3">
+      <c r="C18" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3">
+      <c r="B19" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B2:B6"/>
+    <mergeCell ref="B8:B10"/>
+  </mergeCells>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/项目核心文档/格林凯尔数据检测管理系统功能清单.xlsx
+++ b/项目核心文档/格林凯尔数据检测管理系统功能清单.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8385"/>
+    <workbookView windowWidth="28695" windowHeight="13065"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
     <t>数据字典</t>
   </si>
   <si>
-    <t>该功能主要对系统中的状态、类型（如：性别，设备启用、停用）等不变或少变的标示性数据进行维护、新增、修改、删除以及查看。</t>
+    <t>该功能主要对系统中的状态、类型（如：性别，设备启用、停用）等不变或少变的标示性数据进行维护、新增、删除、修改以及查看。</t>
   </si>
   <si>
     <t>账户信息</t>
@@ -145,9 +145,24 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -166,14 +181,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -181,9 +188,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -199,21 +205,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -244,13 +236,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -264,6 +249,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -275,6 +268,13 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -297,187 +297,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -495,33 +495,25 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
-      </top>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -543,9 +535,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -580,11 +574,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -596,10 +596,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -608,133 +608,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1092,7 +1092,7 @@
   <dimension ref="B1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>

--- a/项目核心文档/格林凯尔数据检测管理系统功能清单.xlsx
+++ b/项目核心文档/格林凯尔数据检测管理系统功能清单.xlsx
@@ -4,19 +4,23 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13065"/>
+    <workbookView windowWidth="20385" windowHeight="8370"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="系统功能清单及说明" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69">
+  <si>
+    <t>湖北格林凯尔农业科技有限公司</t>
+  </si>
+  <si>
+    <t>系统</t>
+  </si>
   <si>
     <t>功能菜单</t>
   </si>
@@ -24,97 +28,199 @@
     <t>功能模块</t>
   </si>
   <si>
-    <t>描述</t>
-  </si>
-  <si>
-    <t>系统信息管理</t>
+    <t>功能描述</t>
+  </si>
+  <si>
+    <t>数据检测管理系统(DMS)</t>
+  </si>
+  <si>
+    <t>系统管理</t>
+  </si>
+  <si>
+    <t>菜单维护</t>
+  </si>
+  <si>
+    <t>该功能主要对系统中的主菜单以及主菜单下的各个功能模块进行分配管理，便于今后的系统维护（新增或屏蔽功能菜单等）。</t>
+  </si>
+  <si>
+    <t>首页管理</t>
+  </si>
+  <si>
+    <t>系统管理员对系统首页门户定制化的个性内容进行编辑和修改，保证系统首页日常维护和更新，展现丰富的企业信息和风貌。</t>
+  </si>
+  <si>
+    <t>用户管理</t>
+  </si>
+  <si>
+    <t>系统管理员对系统用户分配账号和角色，提供新增，修改，删除功能。各个用户能对自己的账户进行完善信息的操作等。</t>
+  </si>
+  <si>
+    <t>权限配置</t>
+  </si>
+  <si>
+    <t>系统管理员对系统中的用户角色进功能菜单及功能按钮的操作权限进行分配管理，用户根据自身分配的权限进入系统只能进行特定的操作。</t>
+  </si>
+  <si>
+    <t>流程管理</t>
+  </si>
+  <si>
+    <t>根据业务需要对每一项操作加入流程管理，方便业务主线的正常走向。也保证流程出错时能定位到某一个环节，规范用户的操作习惯和工作习惯。</t>
   </si>
   <si>
     <t>数据字典</t>
   </si>
   <si>
-    <t>该功能主要对系统中的状态、类型（如：性别，设备启用、停用）等不变或少变的标示性数据进行维护、新增、删除、修改以及查看。</t>
-  </si>
-  <si>
-    <t>账户信息</t>
-  </si>
-  <si>
-    <t>该功能主要对系统操作人员的登录信息（账号、密码）及人员基本信息进行维护管理、新增、删除、修改以及查看。</t>
-  </si>
-  <si>
-    <t>角色管理</t>
-  </si>
-  <si>
-    <t>该功能主要对系统的角色进维护管理、新增、删除、修改以及查看，一个账户可拥有多个角色且一个角色可被多个账户拥有。</t>
-  </si>
-  <si>
-    <t>功能权限配置</t>
-  </si>
-  <si>
-    <t>该功能主要对系统中的角色进功能菜单及功能按钮的操作权限进行分配管理。</t>
-  </si>
-  <si>
-    <t>菜单管理</t>
-  </si>
-  <si>
-    <t>该功能主要对系统中的菜单以及菜单下的功能进行管理、分配，此功能便于今后的系统维护（新增或屏蔽功能菜单）。</t>
-  </si>
-  <si>
-    <t>客户信息管理</t>
+    <t>该功能主要对系统中的状态、类型（如：性别，设备启用、停用）等不变或少变的标识性数据进行新增、修改、删除以及查看。</t>
+  </si>
+  <si>
+    <t>客户管理</t>
+  </si>
+  <si>
+    <t>客户分类</t>
+  </si>
+  <si>
+    <t>依据客户所属特性及类别进行分类维护操作，提供新增、修改、删除及查看等功能。</t>
   </si>
   <si>
     <t>客户信息</t>
   </si>
   <si>
-    <t>该功能主要对客户信息进行维护管理、新增、删除、修改以及查看，并对检验单进行关联。</t>
-  </si>
-  <si>
-    <t>样品信息管理</t>
+    <t>对客户信息进行录入和保存，提供新增、修改、删除及查看等功能，便于客户资料的系统归档。方便后续进行直接挑选。</t>
+  </si>
+  <si>
+    <t>客户订单</t>
+  </si>
+  <si>
+    <t>根据客户需求，形成客户一对一的订单，提供订单的新增、修改、删除及查看等功能，对客户订单信息进行系统业务的存储。</t>
+  </si>
+  <si>
+    <t>样品管理</t>
+  </si>
+  <si>
+    <t>样品分类</t>
+  </si>
+  <si>
+    <t>根据样品类别进行分组维护操作，提供新增、修改、删除及查看等功能。</t>
   </si>
   <si>
     <t>样品信息</t>
   </si>
   <si>
-    <t>样品指标</t>
-  </si>
-  <si>
-    <t>样品分类</t>
-  </si>
-  <si>
-    <t>设备信息管理</t>
+    <t>对样品信息进行维护管理、新增、删除、修改以及查看，并对样品分类、属性指标、检验单进行关联。</t>
+  </si>
+  <si>
+    <t>样品属性</t>
+  </si>
+  <si>
+    <t>根据样品需要检测的属性进行录入，关联样品信息。</t>
+  </si>
+  <si>
+    <t>属性指标</t>
+  </si>
+  <si>
+    <t>对样品的某一属性检测指标值进行新增、修改、删除及查看等功能。形成属性指标的标准化规范。</t>
+  </si>
+  <si>
+    <t>设备管理</t>
+  </si>
+  <si>
+    <t>设备分类</t>
+  </si>
+  <si>
+    <t>依据设备仪器功能不同进行分类维护操作，提供新增、修改、删除及查看等功能。</t>
   </si>
   <si>
     <t>设备信息</t>
   </si>
   <si>
-    <t>设备分类</t>
-  </si>
-  <si>
-    <t>检验信息管理</t>
-  </si>
-  <si>
-    <t>检验单</t>
-  </si>
-  <si>
-    <t>检测数据</t>
-  </si>
-  <si>
-    <t>检验报告</t>
+    <t>对检测仪器进行维护，包含新增、修改、删除及查看。并关联分类、检测数据存储路径、检验单进行关联</t>
+  </si>
+  <si>
+    <t>设备检测属性</t>
+  </si>
+  <si>
+    <t>对不同仪器检测的不同属性进行归档，提供新增、修改、删除及查看等功能。</t>
+  </si>
+  <si>
+    <t>检测数据存放</t>
+  </si>
+  <si>
+    <t>对每一台检测仪器检测完之后的检测结果数据存储路径进行定义，保证系统接口读取检测数据。</t>
+  </si>
+  <si>
+    <t>检测数据查看</t>
+  </si>
+  <si>
+    <t>对系统接口读取的检验仪器检验结果数据进行维护，提供查询功能(后续如需认为管控，可加入修改功能)。</t>
+  </si>
+  <si>
+    <t>检测单管理</t>
+  </si>
+  <si>
+    <t>检测单信息</t>
+  </si>
+  <si>
+    <t>对检测单信息进行维护，包含新增、修改、删除及查询，检验单包含客户信息、样品信息、设备信息、检测结果信息，后续检验报告通过检验单输出</t>
+  </si>
+  <si>
+    <t>检测单关联检测数据</t>
+  </si>
+  <si>
+    <t>对检测单信息及检测数据进行关联操作。</t>
+  </si>
+  <si>
+    <t>检验报告管理</t>
+  </si>
+  <si>
+    <t>报告模板</t>
+  </si>
+  <si>
+    <t>对输出的检测报告进行模板的录入，不同样品，不同检测属性最后的检测报告可能不一样。</t>
+  </si>
+  <si>
+    <t>数据计算及比对</t>
+  </si>
+  <si>
+    <t>根据检测数据进行公式计算和指标对比等操作。</t>
+  </si>
+  <si>
+    <t>报告生成</t>
+  </si>
+  <si>
+    <t>根据检测单结果形成最终的检测报告，对检测报告进行系统存储。</t>
+  </si>
+  <si>
+    <t>报告导出</t>
+  </si>
+  <si>
+    <t>针对检验报告导出功能(Excel、Word、Pdf等)，检验报告的生成通过检验单，信息包括客户信息、样品信息、样品检测结果信息，检验结果和属性指标比对信息等。</t>
   </si>
   <si>
     <t>报表分析管理</t>
   </si>
   <si>
-    <t>月度检验报表分析</t>
-  </si>
-  <si>
-    <t>季度检验报表分析</t>
-  </si>
-  <si>
-    <t>年度检验报表分析</t>
-  </si>
-  <si>
-    <t>流程管理</t>
+    <t>客户分析报表</t>
+  </si>
+  <si>
+    <t>对客户信息进行大数据统计分析(例如：根据不同类别的客户查看客户订单量，检测量等)</t>
+  </si>
+  <si>
+    <t>样品分析报表</t>
+  </si>
+  <si>
+    <t>对样品信息进行大数据统计分析(例如：某一样品某段时间内检测的结果分析，某一样品的合格率、参检量等)</t>
+  </si>
+  <si>
+    <t>设备分析报表</t>
+  </si>
+  <si>
+    <t>对检测设备仪器进行大数据统计分析(例如：某一设备某段时间一共检测了多少样品量等)</t>
+  </si>
+  <si>
+    <t>检测单分析报表</t>
+  </si>
+  <si>
+    <t>对检测单进行大数据统计分析(例如：某一条检测单共检验多少样品；不同的检测单耗时多少完成检测等)</t>
   </si>
 </sst>
 </file>
@@ -127,10 +233,132 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="26"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -140,73 +368,6 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -227,9 +388,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -237,44 +397,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -287,6 +409,20 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -297,13 +433,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -315,97 +607,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -415,74 +617,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -491,11 +627,106 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -509,11 +740,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -544,17 +781,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -574,17 +805,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -596,10 +821,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -608,142 +833,175 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1089,200 +1347,350 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="B1:D19"/>
+  <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
-    <col min="2" max="2" width="20" customWidth="1"/>
-    <col min="3" max="3" width="16.5" customWidth="1"/>
-    <col min="4" max="4" width="34.625" customWidth="1"/>
+    <col min="2" max="3" width="20.625" customWidth="1"/>
+    <col min="4" max="4" width="80.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="25" customHeight="1" spans="2:4">
-      <c r="B1" s="1" t="s">
+    <row r="1" ht="33.75" spans="1:4">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="3"/>
+    </row>
+    <row r="2" ht="20.25" spans="1:4">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="2:4">
-      <c r="B2" t="s">
+      <c r="C2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D2" t="s">
+    </row>
+    <row r="3" ht="35" customHeight="1" spans="1:4">
+      <c r="A3" s="5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="3:4">
-      <c r="C3" t="s">
+      <c r="B3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D3" t="s">
+      <c r="C3" s="7" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="3:4">
-      <c r="C4" t="s">
+      <c r="D3" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D4" t="s">
+    </row>
+    <row r="4" ht="35" customHeight="1" spans="1:4">
+      <c r="A4" s="9"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="7" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="3:4">
-      <c r="C5" t="s">
+      <c r="D4" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D5" t="s">
+    </row>
+    <row r="5" ht="35" customHeight="1" spans="1:4">
+      <c r="A5" s="9"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="6" spans="3:4">
-      <c r="C6" t="s">
+      <c r="D5" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D6" t="s">
+    </row>
+    <row r="6" ht="35" customHeight="1" spans="1:4">
+      <c r="A6" s="9"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="7" spans="2:4">
-      <c r="B7" t="s">
+      <c r="D6" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C7" t="s">
+    </row>
+    <row r="7" ht="35" customHeight="1" spans="1:4">
+      <c r="A7" s="9"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="8" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="2:3">
-      <c r="B8" t="s">
+    <row r="8" ht="35" customHeight="1" spans="1:4">
+      <c r="A8" s="9"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" s="8" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="3:3">
-      <c r="C9" t="s">
+    <row r="9" ht="35" customHeight="1" spans="1:4">
+      <c r="A9" s="9"/>
+      <c r="B9" s="6" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="10" spans="3:3">
-      <c r="C10" t="s">
+      <c r="C9" s="7" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="11" spans="2:3">
-      <c r="B11" t="s">
+      <c r="D9" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C11" t="s">
+    </row>
+    <row r="10" ht="35" customHeight="1" spans="1:4">
+      <c r="A10" s="9"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="7" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="12" spans="3:3">
-      <c r="C12" t="s">
+      <c r="D10" s="8" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="2:3">
-      <c r="B13" t="s">
+    <row r="11" ht="35" customHeight="1" spans="1:4">
+      <c r="A11" s="9"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D11" s="8" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="3:3">
-      <c r="C14" t="s">
+    <row r="12" ht="35" customHeight="1" spans="1:4">
+      <c r="A12" s="9"/>
+      <c r="B12" s="6" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="15" spans="3:3">
-      <c r="C15" t="s">
+      <c r="C12" s="7" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="16" spans="2:3">
-      <c r="B16" t="s">
+      <c r="D12" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C16" t="s">
+    </row>
+    <row r="13" ht="35" customHeight="1" spans="1:4">
+      <c r="A13" s="9"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="7" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="17" spans="3:3">
-      <c r="C17" t="s">
+      <c r="D13" s="8" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="3:3">
-      <c r="C18" t="s">
+    <row r="14" ht="35" customHeight="1" spans="1:4">
+      <c r="A14" s="9"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="7" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="19" spans="2:3">
-      <c r="B19" t="s">
+      <c r="D14" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C19" t="s">
-        <v>32</v>
+    </row>
+    <row r="15" ht="35" customHeight="1" spans="1:4">
+      <c r="A15" s="9"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" ht="35" customHeight="1" spans="1:4">
+      <c r="A16" s="9"/>
+      <c r="B16" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" ht="35" customHeight="1" spans="1:4">
+      <c r="A17" s="9"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" ht="35" customHeight="1" spans="1:4">
+      <c r="A18" s="9"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" ht="35" customHeight="1" spans="1:4">
+      <c r="A19" s="9"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" ht="35" customHeight="1" spans="1:4">
+      <c r="A20" s="9"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" ht="35" customHeight="1" spans="1:4">
+      <c r="A21" s="9"/>
+      <c r="B21" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22" ht="35" customHeight="1" spans="1:4">
+      <c r="A22" s="9"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" ht="35" customHeight="1" spans="1:4">
+      <c r="A23" s="9"/>
+      <c r="B23" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="24" ht="35" customHeight="1" spans="1:4">
+      <c r="A24" s="9"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="25" ht="35" customHeight="1" spans="1:4">
+      <c r="A25" s="9"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="26" ht="35" customHeight="1" spans="1:4">
+      <c r="A26" s="9"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="27" ht="35" customHeight="1" spans="1:4">
+      <c r="A27" s="9"/>
+      <c r="B27" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="28" ht="35" customHeight="1" spans="1:4">
+      <c r="A28" s="9"/>
+      <c r="B28" s="10"/>
+      <c r="C28" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="29" ht="35" customHeight="1" spans="1:4">
+      <c r="A29" s="9"/>
+      <c r="B29" s="10"/>
+      <c r="C29" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="30" ht="35" customHeight="1" spans="1:4">
+      <c r="A30" s="12"/>
+      <c r="B30" s="11"/>
+      <c r="C30" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B2:B6"/>
-    <mergeCell ref="B8:B10"/>
+  <mergeCells count="9">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A3:A30"/>
+    <mergeCell ref="B3:B8"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="B12:B15"/>
+    <mergeCell ref="B16:B20"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="B23:B26"/>
+    <mergeCell ref="B27:B30"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
 </file>